--- a/biology/Botanique/Torricelliaceae/Torricelliaceae.xlsx
+++ b/biology/Botanique/Torricelliaceae/Torricelliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Torricelliaceae sont une petite famille de plantes dicotylédones.
 Ce sont des petits arbres à feuilles alternes, originaires d’Asie continentale.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Torricellia, donné en hommage au médecin et mathématicien italien Evangelista Torricelli (1608–1647), inventeur du baromètre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Torricellia, donné en hommage au médecin et mathématicien italien Evangelista Torricelli (1608–1647), inventeur du baromètre.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est acceptée par la classification phylogénétique APG (1998)[2], la classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est acceptée par la classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009).
 La Angiosperm Phylogeny Website [19 dec 2006] étend cette famille en y incluant les Aralidiaceae et les Melanophyllaceae.
 </t>
         </is>
@@ -575,10 +591,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Aralidiaceae et Melanophyllaceae. Les genres Aralidium et Melanophylla pour être précis.
-Selon Angiosperm Phylogeny Website                        (12 Jul 2010)[5] et NCBI  (12 Jul 2010)[6] (Plus conforme à APGIII puisqu'ils incorporent les genres Aralidium et Melanophylla anciennement dans Aralidiaceae et Melanophyllaceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Aralidiaceae et Melanophyllaceae. Les genres Aralidium et Melanophylla pour être précis.
+Selon Angiosperm Phylogeny Website                        (12 Jul 2010) et NCBI  (12 Jul 2010) (Plus conforme à APGIII puisqu'ils incorporent les genres Aralidium et Melanophylla anciennement dans Aralidiaceae et Melanophyllaceae) :
 Aralidium (en)
 Melanophylla (en)
 Torricellia</t>
@@ -609,9 +627,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 Jul 2010) :
 genre Aralidium
 Aralidium pinnatifidum
 genre Melanophylla
